--- a/HT_subjects.xlsx
+++ b/HT_subjects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Maria Chile\UC\Alumnos Postgrado\Diego de la Vega\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F7C033-B25C-48E6-AF7B-DBE40E124E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9472D2-22E4-421E-BAA0-C2C012D44695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{A947EAB9-0D52-0D48-A577-09A064275AFA}"/>
   </bookViews>
@@ -42,10 +42,10 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>Male</t>
+    <t>Man</t>
   </si>
   <si>
-    <t>Female</t>
+    <t>Woman</t>
   </si>
 </sst>
 </file>
